--- a/Foundation properties.xlsx
+++ b/Foundation properties.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="138">
   <si>
     <t>Former name</t>
   </si>
@@ -30,12 +30,6 @@
     <t>Owner</t>
   </si>
   <si>
-    <t>Former use</t>
-  </si>
-  <si>
-    <t>New use</t>
-  </si>
-  <si>
     <t>Confiscated</t>
   </si>
   <si>
@@ -84,9 +78,6 @@
     <t>restaurants</t>
   </si>
   <si>
-    <t>still standing following court cases against its redevelopment</t>
-  </si>
-  <si>
     <t>Kelebek Korse</t>
   </si>
   <si>
@@ -267,9 +258,6 @@
     <t>hospital, social housing, theatre</t>
   </si>
   <si>
-    <t>hotel, shopping center, conference hall, parking lot</t>
-  </si>
-  <si>
     <t>Vizzion Europe, Yükselen Inşaat</t>
   </si>
   <si>
@@ -336,9 +324,6 @@
     <t>Lotus Nişantaşı</t>
   </si>
   <si>
-    <t>41.05158, 28.985523</t>
-  </si>
-  <si>
     <t>Catholic Mıhitaryan Monastery and School Foundation</t>
   </si>
   <si>
@@ -393,9 +378,6 @@
     <t>vocational school</t>
   </si>
   <si>
-    <t>shopping center, luxury condos</t>
-  </si>
-  <si>
     <t>Taş Yapı</t>
   </si>
   <si>
@@ -436,6 +418,21 @@
   </si>
   <si>
     <t>41.050886, 28.986294</t>
+  </si>
+  <si>
+    <t>41.051830, 28.987664</t>
+  </si>
+  <si>
+    <t>Former state</t>
+  </si>
+  <si>
+    <t>Current state</t>
+  </si>
+  <si>
+    <t>still standing following court cases against eviction</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -885,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -895,6 +892,7 @@
     <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="18.33203125" customWidth="1"/>
     <col min="4" max="4" width="27.1640625" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" customWidth="1"/>
     <col min="6" max="6" width="14.6640625" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
     <col min="9" max="9" width="8.83203125" customWidth="1"/>
@@ -911,1122 +909,1126 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="16" thickBot="1">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12" ht="26" thickBot="1">
       <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2" t="s">
-        <v>21</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="26" thickBot="1">
       <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="16" thickBot="1">
       <c r="A5" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="26" thickBot="1">
       <c r="A6" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="26" thickBot="1">
       <c r="A7" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="26" thickBot="1">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:12" ht="26" thickBot="1">
       <c r="A9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F9" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:12" ht="26" thickBot="1">
       <c r="A10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="26" thickBot="1">
       <c r="A11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="F11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" ht="26" thickBot="1">
+      <c r="A12" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="C12" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="L11" s="2"/>
-    </row>
-    <row r="12" spans="1:12" ht="38" thickBot="1">
-      <c r="A12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F12" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:12" ht="50" thickBot="1">
       <c r="A13" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="16" thickBot="1">
       <c r="A14" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:12" ht="26" thickBot="1">
       <c r="A15" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:12" ht="16" thickBot="1">
       <c r="A16" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:12" ht="16" thickBot="1">
       <c r="A17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="G17" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="38" thickBot="1">
+      <c r="A18" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="50" thickBot="1">
-      <c r="A18" s="2" t="s">
+      <c r="D18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="F18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K18" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="L18" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="26" thickBot="1">
       <c r="A19" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:12" ht="16" thickBot="1">
       <c r="A20" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="26" thickBot="1">
       <c r="A21" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="G21" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
     <row r="22" spans="1:12" ht="16" thickBot="1">
       <c r="A22" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="38" thickBot="1">
       <c r="A23" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
     <row r="24" spans="1:12" ht="26" thickBot="1">
       <c r="A24" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
     <row r="25" spans="1:12" ht="26" thickBot="1">
       <c r="A25" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K25" s="2"/>
       <c r="L25" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="26" thickBot="1">
       <c r="A26" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
     <row r="27" spans="1:12" ht="26" thickBot="1">
       <c r="A27" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="G27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="L27" s="2"/>
+      <c r="L27" s="2" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="28" spans="1:12" ht="16" thickBot="1">
       <c r="A28" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
     <row r="29" spans="1:12" ht="26" thickBot="1">
       <c r="A29" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
     <row r="30" spans="1:12" ht="26" thickBot="1">
       <c r="A30" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
     <row r="31" spans="1:12" ht="38" thickBot="1">
       <c r="A31" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="G31" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="26" thickBot="1">
       <c r="A32" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K32" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="L32" s="2"/>
     </row>
     <row r="33" spans="1:12" ht="26" thickBot="1">
       <c r="A33" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F33" s="2"/>
+        <v>120</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="G33" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/Foundation properties.xlsx
+++ b/Foundation properties.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="139">
   <si>
     <t>Former name</t>
   </si>
@@ -345,9 +345,6 @@
     <t>Karagözyan Armenian Orphanage</t>
   </si>
   <si>
-    <t>41.063364, 28.986328</t>
-  </si>
-  <si>
     <t>cultural center</t>
   </si>
   <si>
@@ -433,6 +430,12 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>41.063446, 28.988637</t>
+  </si>
+  <si>
+    <t>41.063986, 28.987894</t>
   </si>
 </sst>
 </file>
@@ -883,7 +886,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="C30" sqref="C30:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -909,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
@@ -945,7 +948,7 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>12</v>
@@ -1004,7 +1007,7 @@
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="26" thickBot="1">
@@ -1121,7 +1124,7 @@
         <v>37</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>12</v>
@@ -1297,7 +1300,7 @@
         <v>54</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>51</v>
@@ -1329,7 +1332,7 @@
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>51</v>
@@ -1599,7 +1602,7 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>88</v>
@@ -1729,7 +1732,7 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>95</v>
@@ -1797,7 +1800,7 @@
         <v>100</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>101</v>
@@ -1824,7 +1827,7 @@
         <v>104</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="16" thickBot="1">
@@ -1897,7 +1900,7 @@
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>17</v>
@@ -1906,7 +1909,7 @@
         <v>72</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>9</v>
@@ -1928,19 +1931,19 @@
         <v>107</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E31" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>9</v>
@@ -1956,24 +1959,24 @@
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="26" thickBot="1">
       <c r="A32" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>28</v>
@@ -1991,28 +1994,28 @@
         <v>10</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L32" s="2"/>
     </row>
     <row r="33" spans="1:12" ht="26" thickBot="1">
       <c r="A33" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="E33" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>10</v>
@@ -2028,7 +2031,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/Foundation properties.xlsx
+++ b/Foundation properties.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="140">
   <si>
     <t>Former name</t>
   </si>
@@ -273,9 +273,6 @@
     <t>41.041872, 28.986198</t>
   </si>
   <si>
-    <t>polyclinic, apartment</t>
-  </si>
-  <si>
     <t>Pangaltı Palas</t>
   </si>
   <si>
@@ -330,12 +327,6 @@
     <t>cinema, passage</t>
   </si>
   <si>
-    <t>office, shopping center, hotel</t>
-  </si>
-  <si>
-    <t>Bertuğbey İnşaat, Tabanlıoğlu Mimarlık</t>
-  </si>
-  <si>
     <t>41.051092, 28.986239</t>
   </si>
   <si>
@@ -345,18 +336,12 @@
     <t>Karagözyan Armenian Orphanage</t>
   </si>
   <si>
-    <t>cultural center</t>
-  </si>
-  <si>
     <t>Marriott Hotel and Key Plaza</t>
   </si>
   <si>
     <t>garden, parking lot</t>
   </si>
   <si>
-    <t>hotel, offices, residences, parking lot</t>
-  </si>
-  <si>
     <t>a case blocked it from being confiscated; 40% belongs to the foundation</t>
   </si>
   <si>
@@ -436,6 +421,24 @@
   </si>
   <si>
     <t>41.063986, 28.987894</t>
+  </si>
+  <si>
+    <t>Bertuğ Bey İnşaat</t>
+  </si>
+  <si>
+    <t>Bertuğ Bey İnşaat, Tabanlıoğlu Mimarlık</t>
+  </si>
+  <si>
+    <t>polyclinic, offices</t>
+  </si>
+  <si>
+    <t>offices, shopping center, residences</t>
+  </si>
+  <si>
+    <t>orphanage</t>
+  </si>
+  <si>
+    <t>hotel, offices</t>
   </si>
 </sst>
 </file>
@@ -503,7 +506,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -526,6 +529,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -534,7 +548,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -546,6 +560,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -883,10 +900,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30:C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -912,16 +929,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
@@ -948,7 +965,7 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>12</v>
@@ -1007,7 +1024,7 @@
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="26" thickBot="1">
@@ -1124,7 +1141,7 @@
         <v>37</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>12</v>
@@ -1300,7 +1317,7 @@
         <v>54</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>51</v>
@@ -1332,7 +1349,7 @@
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>51</v>
@@ -1454,7 +1471,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" ht="16" thickBot="1">
+    <row r="17" spans="1:13" ht="16" thickBot="1">
       <c r="A17" s="2" t="s">
         <v>68</v>
       </c>
@@ -1489,8 +1506,11 @@
       <c r="L17" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="38" thickBot="1">
+      <c r="M17" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="38" thickBot="1">
       <c r="A18" s="2" t="s">
         <v>75</v>
       </c>
@@ -1528,7 +1548,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="26" thickBot="1">
+    <row r="19" spans="1:13" ht="26" thickBot="1">
       <c r="A19" s="2" t="s">
         <v>81</v>
       </c>
@@ -1545,7 +1565,7 @@
         <v>11</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>84</v>
+        <v>136</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>9</v>
@@ -1562,13 +1582,13 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:12" ht="16" thickBot="1">
+    <row r="20" spans="1:13" ht="16" thickBot="1">
       <c r="A20" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>12</v>
@@ -1593,19 +1613,19 @@
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="26" thickBot="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="26" thickBot="1">
       <c r="A21" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>11</v>
@@ -1628,13 +1648,13 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="1:12" ht="16" thickBot="1">
+    <row r="22" spans="1:13" ht="16" thickBot="1">
       <c r="A22" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>12</v>
@@ -1659,19 +1679,22 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="38" thickBot="1">
+        <v>89</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="38" thickBot="1">
       <c r="A23" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>11</v>
@@ -1694,13 +1717,13 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:12" ht="26" thickBot="1">
+    <row r="24" spans="1:13" ht="26" thickBot="1">
       <c r="A24" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>65</v>
@@ -1726,16 +1749,16 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:12" ht="26" thickBot="1">
+    <row r="25" spans="1:13" ht="26" thickBot="1">
       <c r="A25" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>11</v>
@@ -1757,19 +1780,19 @@
       </c>
       <c r="K25" s="2"/>
       <c r="L25" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="26" thickBot="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="26" thickBot="1">
       <c r="A26" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>11</v>
@@ -1792,24 +1815,24 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="1:12" ht="26" thickBot="1">
+    <row r="27" spans="1:13" ht="38" thickBot="1">
       <c r="A27" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D27" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="F27" s="2" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>9</v>
@@ -1824,19 +1847,19 @@
         <v>9</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="16" thickBot="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="16" thickBot="1">
       <c r="A28" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>12</v>
@@ -1862,13 +1885,13 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="1:12" ht="26" thickBot="1">
+    <row r="29" spans="1:13" ht="26" thickBot="1">
       <c r="A29" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>17</v>
@@ -1894,22 +1917,22 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="1:12" ht="26" thickBot="1">
+    <row r="30" spans="1:13" ht="26" thickBot="1">
       <c r="A30" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>72</v>
+        <v>138</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>9</v>
@@ -1926,57 +1949,59 @@
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="1:12" ht="38" thickBot="1">
+    <row r="31" spans="1:13" ht="38" thickBot="1">
       <c r="A31" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E31" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="26" thickBot="1">
+      <c r="A32" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="26" thickBot="1">
-      <c r="A32" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>28</v>
@@ -1994,28 +2019,28 @@
         <v>10</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="L32" s="2"/>
     </row>
     <row r="33" spans="1:12" ht="26" thickBot="1">
       <c r="A33" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>10</v>
@@ -2031,7 +2056,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
